--- a/natmiOut/OldD2/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H2">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I2">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J2">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.84940712500628</v>
+        <v>1.8598525</v>
       </c>
       <c r="N2">
-        <v>1.84940712500628</v>
+        <v>3.719705</v>
       </c>
       <c r="O2">
-        <v>0.3856998573260713</v>
+        <v>0.2596064746988193</v>
       </c>
       <c r="P2">
-        <v>0.3856998573260713</v>
+        <v>0.1894665655147375</v>
       </c>
       <c r="Q2">
-        <v>36.69618130792371</v>
+        <v>36.99698938628</v>
       </c>
       <c r="R2">
-        <v>36.69618130792371</v>
+        <v>147.98795754512</v>
       </c>
       <c r="S2">
-        <v>0.01476966308417783</v>
+        <v>0.009446452903785135</v>
       </c>
       <c r="T2">
-        <v>0.01476966308417783</v>
+        <v>0.004936535696536177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H3">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I3">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J3">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.62438976796165</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N3">
-        <v>1.62438976796165</v>
+        <v>5.007457</v>
       </c>
       <c r="O3">
-        <v>0.3387717573233698</v>
+        <v>0.2329876982136891</v>
       </c>
       <c r="P3">
-        <v>0.3387717573233698</v>
+        <v>0.2550593877075549</v>
       </c>
       <c r="Q3">
-        <v>32.23135708404628</v>
+        <v>33.20349928847467</v>
       </c>
       <c r="R3">
-        <v>32.23135708404628</v>
+        <v>199.220995730848</v>
       </c>
       <c r="S3">
-        <v>0.01297263823945628</v>
+        <v>0.008477859887317085</v>
       </c>
       <c r="T3">
-        <v>0.01297263823945628</v>
+        <v>0.006645551254567218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H4">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I4">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J4">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.32114168395456</v>
+        <v>1.614337</v>
       </c>
       <c r="N4">
-        <v>1.32114168395456</v>
+        <v>4.843011</v>
       </c>
       <c r="O4">
-        <v>0.2755283853505588</v>
+        <v>0.225336330459468</v>
       </c>
       <c r="P4">
-        <v>0.2755283853505588</v>
+        <v>0.2466831807683927</v>
       </c>
       <c r="Q4">
-        <v>26.21426840652382</v>
+        <v>32.113088997584</v>
       </c>
       <c r="R4">
-        <v>26.21426840652382</v>
+        <v>192.678533985504</v>
       </c>
       <c r="S4">
-        <v>0.01055085021282479</v>
+        <v>0.008199445085746196</v>
       </c>
       <c r="T4">
-        <v>0.01055085021282479</v>
+        <v>0.006427309875438337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>200.994713713177</v>
+        <v>19.892432</v>
       </c>
       <c r="H5">
-        <v>200.994713713177</v>
+        <v>39.784864</v>
       </c>
       <c r="I5">
-        <v>0.3878978739798406</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J5">
-        <v>0.3878978739798406</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.84940712500628</v>
+        <v>1.803510666666667</v>
       </c>
       <c r="N5">
-        <v>1.84940712500628</v>
+        <v>5.410532000000001</v>
       </c>
       <c r="O5">
-        <v>0.3856998573260713</v>
+        <v>0.2517420312928313</v>
       </c>
       <c r="P5">
-        <v>0.3856998573260713</v>
+        <v>0.2755903803252095</v>
       </c>
       <c r="Q5">
-        <v>371.721055629747</v>
+        <v>35.87621329794134</v>
       </c>
       <c r="R5">
-        <v>371.721055629747</v>
+        <v>215.257279787648</v>
       </c>
       <c r="S5">
-        <v>0.1496121546511109</v>
+        <v>0.00916028479362788</v>
       </c>
       <c r="T5">
-        <v>0.1496121546511109</v>
+        <v>0.007180484569408401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>200.994713713177</v>
+        <v>19.892432</v>
       </c>
       <c r="H6">
-        <v>200.994713713177</v>
+        <v>39.784864</v>
       </c>
       <c r="I6">
-        <v>0.3878978739798406</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J6">
-        <v>0.3878978739798406</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.62438976796165</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N6">
-        <v>1.62438976796165</v>
+        <v>0.651809</v>
       </c>
       <c r="O6">
-        <v>0.3387717573233698</v>
+        <v>0.03032746533519238</v>
       </c>
       <c r="P6">
-        <v>0.3387717573233698</v>
+        <v>0.03320048568410545</v>
       </c>
       <c r="Q6">
-        <v>326.4937563700659</v>
+        <v>4.322022069829333</v>
       </c>
       <c r="R6">
-        <v>326.4937563700659</v>
+        <v>25.932132418976</v>
       </c>
       <c r="S6">
-        <v>0.1314088444301496</v>
+        <v>0.001103543250654426</v>
       </c>
       <c r="T6">
-        <v>0.1314088444301496</v>
+        <v>0.0008650359089829833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H7">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I7">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J7">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.32114168395456</v>
+        <v>1.8598525</v>
       </c>
       <c r="N7">
-        <v>1.32114168395456</v>
+        <v>3.719705</v>
       </c>
       <c r="O7">
-        <v>0.2755283853505588</v>
+        <v>0.2596064746988193</v>
       </c>
       <c r="P7">
-        <v>0.2755283853505588</v>
+        <v>0.1894665655147375</v>
       </c>
       <c r="Q7">
-        <v>265.5424945409914</v>
+        <v>391.1036110833867</v>
       </c>
       <c r="R7">
-        <v>265.5424945409914</v>
+        <v>2346.62166650032</v>
       </c>
       <c r="S7">
-        <v>0.10687687489858</v>
+        <v>0.09986060768419165</v>
       </c>
       <c r="T7">
-        <v>0.10687687489858</v>
+        <v>0.0782778667609636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>114.880095273115</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H8">
-        <v>114.880095273115</v>
+        <v>630.862304</v>
       </c>
       <c r="I8">
-        <v>0.2217060533374686</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J8">
-        <v>0.2217060533374686</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.84940712500628</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N8">
-        <v>1.84940712500628</v>
+        <v>5.007457</v>
       </c>
       <c r="O8">
-        <v>0.3856998573260713</v>
+        <v>0.2329876982136891</v>
       </c>
       <c r="P8">
-        <v>0.3856998573260713</v>
+        <v>0.2550593877075549</v>
       </c>
       <c r="Q8">
-        <v>212.4600667194992</v>
+        <v>351.0017622445476</v>
       </c>
       <c r="R8">
-        <v>212.4600667194992</v>
+        <v>3159.015860200928</v>
       </c>
       <c r="S8">
-        <v>0.08551199314058799</v>
+        <v>0.08962139004257225</v>
       </c>
       <c r="T8">
-        <v>0.08551199314058799</v>
+        <v>0.1053774565072377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>114.880095273115</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H9">
-        <v>114.880095273115</v>
+        <v>630.862304</v>
       </c>
       <c r="I9">
-        <v>0.2217060533374686</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J9">
-        <v>0.2217060533374686</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.62438976796165</v>
+        <v>1.614337</v>
       </c>
       <c r="N9">
-        <v>1.62438976796165</v>
+        <v>4.843011</v>
       </c>
       <c r="O9">
-        <v>0.3387717573233698</v>
+        <v>0.225336330459468</v>
       </c>
       <c r="P9">
-        <v>0.3387717573233698</v>
+        <v>0.2466831807683927</v>
       </c>
       <c r="Q9">
-        <v>186.6100513041075</v>
+        <v>339.4747864174826</v>
       </c>
       <c r="R9">
-        <v>186.6100513041075</v>
+        <v>3055.273077757344</v>
       </c>
       <c r="S9">
-        <v>0.07510774929836299</v>
+        <v>0.08667820368931131</v>
       </c>
       <c r="T9">
-        <v>0.07510774929836299</v>
+        <v>0.1019168374319687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.880095273115</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H10">
-        <v>114.880095273115</v>
+        <v>630.862304</v>
       </c>
       <c r="I10">
-        <v>0.2217060533374686</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J10">
-        <v>0.2217060533374686</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.32114168395456</v>
+        <v>1.803510666666667</v>
       </c>
       <c r="N10">
-        <v>1.32114168395456</v>
+        <v>5.410532000000001</v>
       </c>
       <c r="O10">
-        <v>0.2755283853505588</v>
+        <v>0.2517420312928313</v>
       </c>
       <c r="P10">
-        <v>0.2755283853505588</v>
+        <v>0.2755903803252095</v>
       </c>
       <c r="Q10">
-        <v>151.7728825219834</v>
+        <v>379.2556314873032</v>
       </c>
       <c r="R10">
-        <v>151.7728825219834</v>
+        <v>3413.300683385728</v>
       </c>
       <c r="S10">
-        <v>0.06108631089851758</v>
+        <v>0.09683545933790713</v>
       </c>
       <c r="T10">
-        <v>0.06108631089851758</v>
+        <v>0.1138598095821927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.6184605076548</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H11">
-        <v>74.6184605076548</v>
+        <v>630.862304</v>
       </c>
       <c r="I11">
-        <v>0.1440054897755773</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J11">
-        <v>0.1440054897755773</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.84940712500628</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N11">
-        <v>1.84940712500628</v>
+        <v>0.651809</v>
       </c>
       <c r="O11">
-        <v>0.3856998573260713</v>
+        <v>0.03032746533519238</v>
       </c>
       <c r="P11">
-        <v>0.3856998573260713</v>
+        <v>0.03320048568410545</v>
       </c>
       <c r="Q11">
-        <v>137.9999125198565</v>
+        <v>45.68908083421511</v>
       </c>
       <c r="R11">
-        <v>137.9999125198565</v>
+        <v>411.201727507936</v>
       </c>
       <c r="S11">
-        <v>0.05554289686061119</v>
+        <v>0.01166580733938583</v>
       </c>
       <c r="T11">
-        <v>0.05554289686061119</v>
+        <v>0.01371673776699951</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.6184605076548</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H12">
-        <v>74.6184605076548</v>
+        <v>389.68493</v>
       </c>
       <c r="I12">
-        <v>0.1440054897755773</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J12">
-        <v>0.1440054897755773</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62438976796165</v>
+        <v>1.8598525</v>
       </c>
       <c r="N12">
-        <v>1.62438976796165</v>
+        <v>3.719705</v>
       </c>
       <c r="O12">
-        <v>0.3387717573233698</v>
+        <v>0.2596064746988193</v>
       </c>
       <c r="P12">
-        <v>0.3387717573233698</v>
+        <v>0.1894665655147375</v>
       </c>
       <c r="Q12">
-        <v>121.2094637496849</v>
+        <v>241.5854970909417</v>
       </c>
       <c r="R12">
-        <v>121.2094637496849</v>
+        <v>1449.51298254565</v>
       </c>
       <c r="S12">
-        <v>0.04878499283548488</v>
+        <v>0.06168410074343527</v>
       </c>
       <c r="T12">
-        <v>0.04878499283548488</v>
+        <v>0.048352397719575</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.6184605076548</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H13">
-        <v>74.6184605076548</v>
+        <v>389.68493</v>
       </c>
       <c r="I13">
-        <v>0.1440054897755773</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J13">
-        <v>0.1440054897755773</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.32114168395456</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N13">
-        <v>1.32114168395456</v>
+        <v>5.007457</v>
       </c>
       <c r="O13">
-        <v>0.2755283853505588</v>
+        <v>0.2329876982136891</v>
       </c>
       <c r="P13">
-        <v>0.2755283853505588</v>
+        <v>0.2550593877075549</v>
       </c>
       <c r="Q13">
-        <v>98.5815585691799</v>
+        <v>216.8145033914456</v>
       </c>
       <c r="R13">
-        <v>98.5815585691799</v>
+        <v>1951.33053052301</v>
       </c>
       <c r="S13">
-        <v>0.03967760007948122</v>
+        <v>0.05535931515293465</v>
       </c>
       <c r="T13">
-        <v>0.03967760007948122</v>
+        <v>0.06509186949708912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.3521489985639</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H14">
-        <v>16.3521489985639</v>
+        <v>389.68493</v>
       </c>
       <c r="I14">
-        <v>0.03155786395753691</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J14">
-        <v>0.03155786395753691</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.84940712500628</v>
+        <v>1.614337</v>
       </c>
       <c r="N14">
-        <v>1.84940712500628</v>
+        <v>4.843011</v>
       </c>
       <c r="O14">
-        <v>0.3856998573260713</v>
+        <v>0.225336330459468</v>
       </c>
       <c r="P14">
-        <v>0.3856998573260713</v>
+        <v>0.2466831807683927</v>
       </c>
       <c r="Q14">
-        <v>30.24178086710839</v>
+        <v>209.6942669471367</v>
       </c>
       <c r="R14">
-        <v>30.24178086710839</v>
+        <v>1887.24840252423</v>
       </c>
       <c r="S14">
-        <v>0.01217186362593756</v>
+        <v>0.05354130294840857</v>
       </c>
       <c r="T14">
-        <v>0.01217186362593756</v>
+        <v>0.06295423804637104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,122 +1340,122 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.3521489985639</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H15">
-        <v>16.3521489985639</v>
+        <v>389.68493</v>
       </c>
       <c r="I15">
-        <v>0.03155786395753691</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J15">
-        <v>0.03155786395753691</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.62438976796165</v>
+        <v>1.803510666666667</v>
       </c>
       <c r="N15">
-        <v>1.62438976796165</v>
+        <v>5.410532000000001</v>
       </c>
       <c r="O15">
-        <v>0.3387717573233698</v>
+        <v>0.2517420312928313</v>
       </c>
       <c r="P15">
-        <v>0.3387717573233698</v>
+        <v>0.2755903803252095</v>
       </c>
       <c r="Q15">
-        <v>26.56226351745154</v>
+        <v>234.2669759647512</v>
       </c>
       <c r="R15">
-        <v>26.56226351745154</v>
+        <v>2108.40278368276</v>
       </c>
       <c r="S15">
-        <v>0.01069091303026661</v>
+        <v>0.05981546044889408</v>
       </c>
       <c r="T15">
-        <v>0.01069091303026661</v>
+        <v>0.07033143626671674</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.3521489985639</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H16">
-        <v>16.3521489985639</v>
+        <v>389.68493</v>
       </c>
       <c r="I16">
-        <v>0.03155786395753691</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J16">
-        <v>0.03155786395753691</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.32114168395456</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N16">
-        <v>1.32114168395456</v>
+        <v>0.651809</v>
       </c>
       <c r="O16">
-        <v>0.2755283853505588</v>
+        <v>0.03032746533519238</v>
       </c>
       <c r="P16">
-        <v>0.2755283853505588</v>
+        <v>0.03320048568410545</v>
       </c>
       <c r="Q16">
-        <v>21.60350566423859</v>
+        <v>28.22223828204111</v>
       </c>
       <c r="R16">
-        <v>21.60350566423859</v>
+        <v>254.00014453837</v>
       </c>
       <c r="S16">
-        <v>0.008695087301332741</v>
+        <v>0.007205992952214901</v>
       </c>
       <c r="T16">
-        <v>0.008695087301332741</v>
+        <v>0.008472856854293137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.4764482908505</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H17">
-        <v>91.4764482908505</v>
+        <v>228.582658</v>
       </c>
       <c r="I17">
-        <v>0.1765395674131179</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J17">
-        <v>0.1765395674131179</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.84940712500628</v>
+        <v>1.8598525</v>
       </c>
       <c r="N17">
-        <v>1.84940712500628</v>
+        <v>3.719705</v>
       </c>
       <c r="O17">
-        <v>0.3856998573260713</v>
+        <v>0.2596064746988193</v>
       </c>
       <c r="P17">
-        <v>0.3856998573260713</v>
+        <v>0.1894665655147375</v>
       </c>
       <c r="Q17">
-        <v>169.1771952393674</v>
+        <v>141.7100093126483</v>
       </c>
       <c r="R17">
-        <v>169.1771952393674</v>
+        <v>850.26005587589</v>
       </c>
       <c r="S17">
-        <v>0.0680912859636459</v>
+        <v>0.03618286112391929</v>
       </c>
       <c r="T17">
-        <v>0.0680912859636459</v>
+        <v>0.02836270725535522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.4764482908505</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H18">
-        <v>91.4764482908505</v>
+        <v>228.582658</v>
       </c>
       <c r="I18">
-        <v>0.1765395674131179</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J18">
-        <v>0.1765395674131179</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.62438976796165</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N18">
-        <v>1.62438976796165</v>
+        <v>5.007457</v>
       </c>
       <c r="O18">
-        <v>0.3387717573233698</v>
+        <v>0.2329876982136891</v>
       </c>
       <c r="P18">
-        <v>0.3387717573233698</v>
+        <v>0.2550593877075549</v>
       </c>
       <c r="Q18">
-        <v>148.5934066131305</v>
+        <v>127.1797589867451</v>
       </c>
       <c r="R18">
-        <v>148.5934066131305</v>
+        <v>1144.617830880706</v>
       </c>
       <c r="S18">
-        <v>0.05980661948964944</v>
+        <v>0.03247284775091887</v>
       </c>
       <c r="T18">
-        <v>0.05980661948964944</v>
+        <v>0.03818180124089928</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>76.19421933333332</v>
+      </c>
+      <c r="H19">
+        <v>228.582658</v>
+      </c>
+      <c r="I19">
+        <v>0.1393758039582664</v>
+      </c>
+      <c r="J19">
+        <v>0.1496976903460524</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>1.614337</v>
+      </c>
+      <c r="N19">
+        <v>4.843011</v>
+      </c>
+      <c r="O19">
+        <v>0.225336330459468</v>
+      </c>
+      <c r="P19">
+        <v>0.2466831807683927</v>
+      </c>
+      <c r="Q19">
+        <v>123.0031474559153</v>
+      </c>
+      <c r="R19">
+        <v>1107.028327103238</v>
+      </c>
+      <c r="S19">
+        <v>0.03140643221879395</v>
+      </c>
+      <c r="T19">
+        <v>0.03692790240824612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>76.19421933333332</v>
+      </c>
+      <c r="H20">
+        <v>228.582658</v>
+      </c>
+      <c r="I20">
+        <v>0.1393758039582664</v>
+      </c>
+      <c r="J20">
+        <v>0.1496976903460524</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.803510666666667</v>
+      </c>
+      <c r="N20">
+        <v>5.410532000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2517420312928313</v>
+      </c>
+      <c r="P20">
+        <v>0.2755903803252095</v>
+      </c>
+      <c r="Q20">
+        <v>137.4170873060062</v>
+      </c>
+      <c r="R20">
+        <v>1236.753785754056</v>
+      </c>
+      <c r="S20">
+        <v>0.03508674800152543</v>
+      </c>
+      <c r="T20">
+        <v>0.04125524341627403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>76.19421933333332</v>
+      </c>
+      <c r="H21">
+        <v>228.582658</v>
+      </c>
+      <c r="I21">
+        <v>0.1393758039582664</v>
+      </c>
+      <c r="J21">
+        <v>0.1496976903460524</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.2172696666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.651809</v>
+      </c>
+      <c r="O21">
+        <v>0.03032746533519238</v>
+      </c>
+      <c r="P21">
+        <v>0.03320048568410545</v>
+      </c>
+      <c r="Q21">
+        <v>16.55469263648022</v>
+      </c>
+      <c r="R21">
+        <v>148.992233728322</v>
+      </c>
+      <c r="S21">
+        <v>0.004226914863108894</v>
+      </c>
+      <c r="T21">
+        <v>0.004970036025277764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H22">
+        <v>51.664604</v>
+      </c>
+      <c r="I22">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J22">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.8598525</v>
+      </c>
+      <c r="N22">
+        <v>3.719705</v>
+      </c>
+      <c r="O22">
+        <v>0.2596064746988193</v>
+      </c>
+      <c r="P22">
+        <v>0.1894665655147375</v>
+      </c>
+      <c r="Q22">
+        <v>32.02951430363667</v>
+      </c>
+      <c r="R22">
+        <v>192.17708582182</v>
+      </c>
+      <c r="S22">
+        <v>0.008178105932928144</v>
+      </c>
+      <c r="T22">
+        <v>0.006410582725465788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H23">
+        <v>51.664604</v>
+      </c>
+      <c r="I23">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J23">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.669152333333334</v>
+      </c>
+      <c r="N23">
+        <v>5.007457</v>
+      </c>
+      <c r="O23">
+        <v>0.2329876982136891</v>
+      </c>
+      <c r="P23">
+        <v>0.2550593877075549</v>
+      </c>
+      <c r="Q23">
+        <v>28.74536477244756</v>
+      </c>
+      <c r="R23">
+        <v>258.708282952028</v>
+      </c>
+      <c r="S23">
+        <v>0.007339563003084487</v>
+      </c>
+      <c r="T23">
+        <v>0.008629909453226194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H24">
+        <v>51.664604</v>
+      </c>
+      <c r="I24">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J24">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>1.614337</v>
+      </c>
+      <c r="N24">
+        <v>4.843011</v>
+      </c>
+      <c r="O24">
+        <v>0.225336330459468</v>
+      </c>
+      <c r="P24">
+        <v>0.2466831807683927</v>
+      </c>
+      <c r="Q24">
+        <v>27.80136060918267</v>
+      </c>
+      <c r="R24">
+        <v>250.212245482644</v>
+      </c>
+      <c r="S24">
+        <v>0.007098530123999306</v>
+      </c>
+      <c r="T24">
+        <v>0.008346501310141741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H25">
+        <v>51.664604</v>
+      </c>
+      <c r="I25">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J25">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.803510666666667</v>
+      </c>
+      <c r="N25">
+        <v>5.410532000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.2517420312928313</v>
+      </c>
+      <c r="P25">
+        <v>0.2755903803252095</v>
+      </c>
+      <c r="Q25">
+        <v>31.05922146770311</v>
+      </c>
+      <c r="R25">
+        <v>279.532993209328</v>
+      </c>
+      <c r="S25">
+        <v>0.007930360758805259</v>
+      </c>
+      <c r="T25">
+        <v>0.009324573581716794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H26">
+        <v>51.664604</v>
+      </c>
+      <c r="I26">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J26">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.2172696666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.651809</v>
+      </c>
+      <c r="O26">
+        <v>0.03032746533519238</v>
+      </c>
+      <c r="P26">
+        <v>0.03320048568410545</v>
+      </c>
+      <c r="Q26">
+        <v>3.741717096515111</v>
+      </c>
+      <c r="R26">
+        <v>33.675453868636</v>
+      </c>
+      <c r="S26">
+        <v>0.0009553737998104617</v>
+      </c>
+      <c r="T26">
+        <v>0.001123335188060109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H27">
+        <v>186.382462</v>
+      </c>
+      <c r="I27">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J27">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.8598525</v>
+      </c>
+      <c r="N27">
+        <v>3.719705</v>
+      </c>
+      <c r="O27">
+        <v>0.2596064746988193</v>
+      </c>
+      <c r="P27">
+        <v>0.1894665655147375</v>
+      </c>
+      <c r="Q27">
+        <v>173.3219439534275</v>
+      </c>
+      <c r="R27">
+        <v>693.2877758137099</v>
+      </c>
+      <c r="S27">
+        <v>0.04425434631055977</v>
+      </c>
+      <c r="T27">
+        <v>0.02312647535684167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H28">
+        <v>186.382462</v>
+      </c>
+      <c r="I28">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J28">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.669152333333334</v>
+      </c>
+      <c r="N28">
+        <v>5.007457</v>
+      </c>
+      <c r="O28">
+        <v>0.2329876982136891</v>
+      </c>
+      <c r="P28">
+        <v>0.2550593877075549</v>
+      </c>
+      <c r="Q28">
+        <v>155.5503606698557</v>
+      </c>
+      <c r="R28">
+        <v>933.302164019134</v>
+      </c>
+      <c r="S28">
+        <v>0.03971672237686173</v>
+      </c>
+      <c r="T28">
+        <v>0.03113279975453546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H29">
+        <v>186.382462</v>
+      </c>
+      <c r="I29">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J29">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>1.614337</v>
+      </c>
+      <c r="N29">
+        <v>4.843011</v>
+      </c>
+      <c r="O29">
+        <v>0.225336330459468</v>
+      </c>
+      <c r="P29">
+        <v>0.2466831807683927</v>
+      </c>
+      <c r="Q29">
+        <v>150.442052278847</v>
+      </c>
+      <c r="R29">
+        <v>902.6523136730818</v>
+      </c>
+      <c r="S29">
+        <v>0.03841241639320866</v>
+      </c>
+      <c r="T29">
+        <v>0.03011039169622675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>91.4764482908505</v>
-      </c>
-      <c r="H19">
-        <v>91.4764482908505</v>
-      </c>
-      <c r="I19">
-        <v>0.1765395674131179</v>
-      </c>
-      <c r="J19">
-        <v>0.1765395674131179</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.32114168395456</v>
-      </c>
-      <c r="N19">
-        <v>1.32114168395456</v>
-      </c>
-      <c r="O19">
-        <v>0.2755283853505588</v>
-      </c>
-      <c r="P19">
-        <v>0.2755283853505588</v>
-      </c>
-      <c r="Q19">
-        <v>120.8533489371565</v>
-      </c>
-      <c r="R19">
-        <v>120.8533489371565</v>
-      </c>
-      <c r="S19">
-        <v>0.04864166195982249</v>
-      </c>
-      <c r="T19">
-        <v>0.04864166195982249</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H30">
+        <v>186.382462</v>
+      </c>
+      <c r="I30">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J30">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.803510666666667</v>
+      </c>
+      <c r="N30">
+        <v>5.410532000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2517420312928313</v>
+      </c>
+      <c r="P30">
+        <v>0.2755903803252095</v>
+      </c>
+      <c r="Q30">
+        <v>168.0713791482973</v>
+      </c>
+      <c r="R30">
+        <v>1008.428274889784</v>
+      </c>
+      <c r="S30">
+        <v>0.04291371795207156</v>
+      </c>
+      <c r="T30">
+        <v>0.03363883290890092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H31">
+        <v>186.382462</v>
+      </c>
+      <c r="I31">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J31">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.2172696666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.651809</v>
+      </c>
+      <c r="O31">
+        <v>0.03032746533519238</v>
+      </c>
+      <c r="P31">
+        <v>0.03320048568410545</v>
+      </c>
+      <c r="Q31">
+        <v>20.24762769562633</v>
+      </c>
+      <c r="R31">
+        <v>121.485766173758</v>
+      </c>
+      <c r="S31">
+        <v>0.005169833130017863</v>
+      </c>
+      <c r="T31">
+        <v>0.004052483940491951</v>
       </c>
     </row>
   </sheetData>
